--- a/reports/spreadsheets/bill-of-materials.xlsx
+++ b/reports/spreadsheets/bill-of-materials.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\uh2pt-furnace\reports\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2A84E0-A6A8-4426-A6A3-BC844726DF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E105FDD3-F61E-4832-8190-6FE7FD043D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69907C6A-2994-4463-B0A4-18DEE1EB8C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="temp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sterling Baird</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{C241E8ED-D424-4488-8ACE-3BB3DC10BB1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+~2000?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{47106608-B7AA-4E4E-9B40-F7F94EE636B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+~1500?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{84FD5612-671C-47A4-8DEC-E665E84C0679}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Verify that NO is what I currently have.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{06700760-D231-4D72-8B67-2855D3D5CDE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+estimate, assumes purchasing the cylinder</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
   <si>
     <t>Designator</t>
   </si>
@@ -116,9 +223,6 @@
     <t>Fisher Scientific Co. FS-50 Pressure Regulator 60 &amp; 4000 psi Gauges</t>
   </si>
   <si>
-    <t>Edwards TAV5 Vent Valve for EXT Turbo Pumps, 24V DC 1/8 BSP, 1.8 Watt Max (B58066)</t>
-  </si>
-  <si>
     <t>Sierra Smart Trak Mass Digital Flow Controller Unit Air Valve 0-20 sccm (C100L)</t>
   </si>
   <si>
@@ -134,9 +238,6 @@
     <t>Power Supply NG 0S (3 852 490)</t>
   </si>
   <si>
-    <t>LumaSense IMPAC ISR 6 Advanced MB25 800-2500 °C (3 904 980)</t>
-  </si>
-  <si>
     <t>MFC Cable</t>
   </si>
   <si>
@@ -167,13 +268,247 @@
     <t>Pressure Sensor</t>
   </si>
   <si>
-    <t>T-Station 85 Control Cable</t>
-  </si>
-  <si>
-    <t>I think I bought this cable from some other supplier, it was the circular head cable, fairly non-standard</t>
-  </si>
-  <si>
     <t>Pyrometer Holder</t>
+  </si>
+  <si>
+    <t>LumaSense IMPAC ISR 6 Advanced MB25 800-2500 °C (3 904 980 ?? Is this number correct? Verify on the unit)</t>
+  </si>
+  <si>
+    <t>Vacuum support KF16 with quartz glass window (3 846 590)</t>
+  </si>
+  <si>
+    <t>I also have the custom 3D printed part + overpressure KF40 centering O-ring + plastic hinge clamp + 2" dia. 1/16" thick quartz disc</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Reducer-Straight-KF-16-to-KF-40-Vacuum-Fittings/pp/P103456</t>
+  </si>
+  <si>
+    <t>Chemical-Resistant Slippery PTFE Tube 1-3/8" OD X 1" ID, 1 ft. Length (8547K17)</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/catalog/129/4096/8547K17</t>
+  </si>
+  <si>
+    <t>Edwards TAV5 24 VDC Normally Open NO Venting Valve with Accessory Connector for nEXT Turbo Pumps with G 1/8 in. Fitting (B8G200834)</t>
+  </si>
+  <si>
+    <t>Vent Valve Extension Cord</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/7138K57</t>
+  </si>
+  <si>
+    <t>Nano M8 Cord, Plug x Elbow Socket, 4 Poles, 6.5'Long</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/pp/P1012197</t>
+  </si>
+  <si>
+    <t>Product filter at https://www.mcmaster.com/products/m8-power-cables/nano-m8-cords-7/end-shape~straight/number-of-poles~4/length~6-1-2-ft-/. Elbow connector to make the cord flusher with the turbo pump.</t>
+  </si>
+  <si>
+    <t>Teflon spacer</t>
+  </si>
+  <si>
+    <t>Alumina spacer</t>
+  </si>
+  <si>
+    <t>Reducer Straight KF-16 to KF-40 Vacuum Fittings, ISO-KF Flange Size NW-16 to NW-40, Stainless Steel</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/SWIFT-SEAL-KF-to-Compression-Port-Adapter/pp/P103921</t>
+  </si>
+  <si>
+    <t>SWIFT-SEAL: KF to Compression Port Adapter, KF-40 to 1 1/2 in., Stainless Steel</t>
+  </si>
+  <si>
+    <t>Hinge Clamp KF-10, KF-16 Vacuum Fittings, ISO-KF Flange Size NW10, NW-16, Aluminum</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Centering-Ring-KF-40-Vacuum-Fittings/pp/P101244</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Centering-Ring-KF-16-Vacuum-Fittings/pp/P101242</t>
+  </si>
+  <si>
+    <t>Centering Ring KF-40 Vacuum Fittings, ISO-KF Flange Size NW-40, Stainless Steel &amp; Viton® O-ring</t>
+  </si>
+  <si>
+    <t>KF40 Hinge Clamp</t>
+  </si>
+  <si>
+    <t>Hinge Clamp KF-40 Vacuum Fittings, ISO-KF Flange Size NW-40, Aluminum</t>
+  </si>
+  <si>
+    <t>KF16 Centering Ring</t>
+  </si>
+  <si>
+    <t>KF40 Centering Ring</t>
+  </si>
+  <si>
+    <t>Centering Ring KF-16 Vacuum Fittings, ISO-KF Flange Size NW-16, Stainless Steel &amp; Viton O-Ring (P101242)</t>
+  </si>
+  <si>
+    <t>IdealVac https://www.idealvac.com/Hinge-Clamp-KF-10/pp/P101198</t>
+  </si>
+  <si>
+    <t>SWIFT-SEAL Compression Adapter</t>
+  </si>
+  <si>
+    <t>KF16 to KF40 Adapter</t>
+  </si>
+  <si>
+    <t>One of these could be the slightly cheaper (~25 USD) option at https://www.idealvac.com/Adapter-KF-40-to-1-12-in-ID-Compression-Port/pp/P1010170</t>
+  </si>
+  <si>
+    <t>VERIFY THAT NORMALLY OPEN IS WHAT YOU WANT. Also, the flange adapter is for KF10</t>
+  </si>
+  <si>
+    <t>KF10 Centering Ring</t>
+  </si>
+  <si>
+    <t>Centering Ring KF-10 Vacuum Fittings, ISO-KF Flange Size NW-10, Stainless Steel &amp; Viton O-Ring</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Centering-Ring-KF-10-Vacuum-Fittings/pp/P101958</t>
+  </si>
+  <si>
+    <t>The other one is for the KF10 port for the vent valve.</t>
+  </si>
+  <si>
+    <t>KF25 port</t>
+  </si>
+  <si>
+    <t>https://shop.edwardsvacuum.com/products/d14701000/view.aspx</t>
+  </si>
+  <si>
+    <t>KF25 Centering Ring</t>
+  </si>
+  <si>
+    <t>KF25 Hinge Clamp</t>
+  </si>
+  <si>
+    <t>Not available in the conical version.</t>
+  </si>
+  <si>
+    <t>Reducer Cross KF-40 to KF-25 Vacuum Fittings, ISO-KF Flange Size NW-40 to NW-25, Stainless Steel</t>
+  </si>
+  <si>
+    <t>Centering Ring KF-25 Vacuum Fittings, ISO-KF Flange Size NW-25, Stainless Steel &amp; Viton® O-ring</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Centering-Ring-KF-25-Vacuum-Fittings/pp/P101243</t>
+  </si>
+  <si>
+    <t>Hinge Clamp KF-25 Vacuum Fittings, ISO-KF Flange Size NW-25, Aluminum</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Hinge-Clamp-KF-25-Vacuum-Fittings/pp/P101199</t>
+  </si>
+  <si>
+    <t>KF40 to KF25 Reducer Cross</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Reducer-Cross-KF-40-to-KF-25-Vacuum-Fittings/pp/P102656</t>
+  </si>
+  <si>
+    <t>Short, thick-walled bellows</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Bellows-Hose-Metal-KF-40/pp/P101239</t>
+  </si>
+  <si>
+    <t>Bellows Hose Metal KF-40, 4 Inch, Flex Coupling, ISO-KF Flange Size NW-40, Stainless Steel</t>
+  </si>
+  <si>
+    <t>KF25 to KF16 Reducer</t>
+  </si>
+  <si>
+    <t>KF10 to KF16 Centering Ring</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Reducer-Conical-KF-16-to-KF-25-Vacuum-Fittings/pp/P101227</t>
+  </si>
+  <si>
+    <t>Reducer Conical KF-16 to KF-25 Vacuum Fittings, ISO-KF Flange Size NW-16 to NW-25, Stainless Steel</t>
+  </si>
+  <si>
+    <t>KF10, KF16 Hinge Clamp</t>
+  </si>
+  <si>
+    <t>Screened Centering Ring</t>
+  </si>
+  <si>
+    <t>Stainless Steel Centering Ring Adaptive KF10 to KF16 Vacuum Fittings, ISO-KF Flange Size NW-10 to NW-16, Viton</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Stainless-Steel-Centering-Ring-Adaptive-KF10-to-KF16-Vacuum-Fittings/pp/P101246</t>
+  </si>
+  <si>
+    <t>Conical available, but going with straight to reduce the evaporation flux onto the window</t>
+  </si>
+  <si>
+    <t>If it doesn't come with the pumping station, then use 1 mm mesh</t>
+  </si>
+  <si>
+    <t>https://www.idealvac.com/Pfeiffer-Centering-Ring-Assembly-KF-40-with-Screen/pp/P108620</t>
+  </si>
+  <si>
+    <t>Pfeiffer Centering Ring Assembly KF-40 with Screen, ISO-KF Flange Size NW-40, 1 mm Mesh</t>
+  </si>
+  <si>
+    <t>This seems like the one that was in the lab that I modified https://www.alibaba.com/product-detail/Alumina-Foam-Block-50-mm-Diameter_60746096716.html. Zirconia foam filter or alumina foam filter seem like good options, but doesn't seem like there's something I can buy off the shelf. This one also seems like the right direction https://www.aliexpress.us/item/3256804698942465.html. I contacted a few companies about foam filters.</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>https://www.dell.com/en-us/shop/dell-laptops/inspiron-15-laptop/spd/inspiron-15-3520-laptop/nn3520ftech</t>
+  </si>
+  <si>
+    <t>Inspiron 15 Laptop, 12ᵗʰ Gen Intel® Core™ i7-1255U, Windows 11 Home, Intel® Iris® Xe Graphics, 16 GB DDR4, 512 GB SSD</t>
+  </si>
+  <si>
+    <t>Either get an alumina spacer that is the full length or find a way to permanently attach the alumina spacer to this teflon spacer</t>
+  </si>
+  <si>
+    <t>One extra to be safe (4 instead of 3)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B01M0AB7MJ/</t>
+  </si>
+  <si>
+    <t>Jack Stand</t>
+  </si>
+  <si>
+    <t>OMT Motorcycle Lift, 4-13 Inch Motorcycle Scissor Jack, 1100lb Capacity Wide Deck Motorcycle Center Stand</t>
+  </si>
+  <si>
+    <t>Cinder Blocks</t>
+  </si>
+  <si>
+    <t>Should have something to go on top of it, a less rough surface (maybe a thin, non-flammable blanket?)</t>
+  </si>
+  <si>
+    <t>16 in. x 8 in. x 8 in. Normal Weight Concrete Block Regular</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/312064971</t>
+  </si>
+  <si>
+    <t>D-SUB9 Breakout Cable</t>
+  </si>
+  <si>
+    <t>Like the one I got on McMaster, since typical VGA cables have a different configuration (can't just snip off the VGA cable)</t>
+  </si>
+  <si>
+    <t>Fixturing cables</t>
+  </si>
+  <si>
+    <t>Gas cylinder</t>
+  </si>
+  <si>
+    <t>Gas cylinder mounting brackets</t>
   </si>
 </sst>
 </file>
@@ -183,7 +518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +533,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,7 +582,20 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$USD]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$USD]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$USD]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$USD]\ #,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -245,6 +606,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{47F72217-CB5C-4C89-8BB5-48B716416210}" name="Table2" displayName="Table2" ref="A1:H48" totalsRowCount="1">
+  <autoFilter ref="A1:H47" xr:uid="{47F72217-CB5C-4C89-8BB5-48B716416210}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7073331A-B313-4061-90E9-C56F3821AB10}" name="Designator"/>
+    <tableColumn id="2" xr3:uid="{098EC4FE-8445-4A3D-8D67-F08AB1F6AB51}" name="Component"/>
+    <tableColumn id="3" xr3:uid="{49188436-C4B1-4923-BCB7-01A883A8BB85}" name="Number"/>
+    <tableColumn id="4" xr3:uid="{DE1FA116-8C82-4CA2-B069-4C4A4DE1701F}" name="Cost per unit - currency" dataDxfId="3" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{8524D018-E6CC-4478-9DE1-06EFA25252D0}" name="Total cost - currency" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="0">
+      <totalsRowFormula>_xlfn.AGGREGATE(9, 6, Table2[Total cost - currency])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D01D20E6-B61A-4530-B2CA-B46320384C1D}" name="Source of materials"/>
+    <tableColumn id="7" xr3:uid="{EB784659-DCFB-4B7E-969D-E257CECF94B7}" name="Material type"/>
+    <tableColumn id="8" xr3:uid="{4B9F77FA-3C4C-457B-964A-D82344BD6247}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,22 +923,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B142AB-8405-40DD-899D-DADA8307041C}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B142AB-8405-40DD-899D-DADA8307041C}">
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="112.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -601,7 +982,7 @@
         <v>13372</v>
       </c>
       <c r="E2" s="1">
-        <f>C2*D2</f>
+        <f>$C2*$D2</f>
         <v>13372</v>
       </c>
       <c r="F2" t="s">
@@ -616,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -625,7 +1006,7 @@
         <v>3370</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E22" si="0">C3*D3</f>
+        <f>$C3*$D3</f>
         <v>3370</v>
       </c>
       <c r="F3" t="s">
@@ -646,7 +1027,7 @@
         <v>1575</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f>$C4*$D4</f>
         <v>1575</v>
       </c>
       <c r="F4" t="s">
@@ -667,7 +1048,7 @@
         <v>995</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f>$C5*$D5</f>
         <v>995</v>
       </c>
       <c r="F5" t="s">
@@ -688,7 +1069,7 @@
         <v>8240</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f>$C6*$D6</f>
         <v>8240</v>
       </c>
       <c r="F6" t="s">
@@ -709,7 +1090,7 @@
         <v>1670</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f>$C7*$D7</f>
         <v>1670</v>
       </c>
       <c r="F7" t="s">
@@ -721,200 +1102,795 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>$C8*$D8</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>$C9*$D9</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>$C10*$D10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
+      <c r="H10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>159.43</v>
+      </c>
+      <c r="E11" s="1">
+        <f>$C11*$D11</f>
+        <v>318.86</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D12" s="1">
+        <v>63.69</v>
+      </c>
+      <c r="E12" s="1">
+        <f>$C12*$D12</f>
+        <v>63.69</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
+      <c r="D13" s="1">
+        <v>8.51</v>
+      </c>
+      <c r="E13" s="1">
+        <f>$C13*$D13</f>
+        <v>8.51</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>647</v>
+        <v>12.92</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>647</v>
+        <f>$C14*$D14</f>
+        <v>25.84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15.25</v>
+      </c>
+      <c r="E15" s="1">
+        <f>$C15*$D15</f>
+        <v>61</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18.93</v>
       </c>
       <c r="E16" s="1">
+        <f>$C16*$D16</f>
+        <v>75.72</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="e">
+        <f>$C17*$D17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="e">
+        <f>$C18*$D18</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f>$C19*$D19</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="e">
+        <f>$C21*$D21</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>931.96</v>
+      </c>
+      <c r="E22" s="1">
+        <f>$C22*$D22</f>
+        <v>931.96</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E23" s="1">
+        <f>$C23*$D23</f>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>16.98</v>
+      </c>
+      <c r="E24" s="1">
+        <f>$C24*$D24</f>
+        <v>16.98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>57.49</v>
+      </c>
+      <c r="E25" s="1">
+        <f>$C25*$D25</f>
+        <v>57.49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9.93</v>
+      </c>
+      <c r="E26" s="1">
+        <f>$C26*$D26</f>
+        <v>19.86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>11.21</v>
+      </c>
+      <c r="E27" s="1">
+        <f>$C27*$D27</f>
+        <v>22.42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>236.62</v>
+      </c>
+      <c r="E28" s="1">
+        <f>$C28*$D28</f>
+        <v>236.62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1382.99</v>
+      </c>
+      <c r="E29" s="1">
+        <f>$C29*$D29</f>
+        <v>1382.99</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>27.47</v>
+      </c>
+      <c r="E30" s="1">
+        <f>$C30*$D30</f>
+        <v>27.47</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <f>$C31*$D31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>113.49</v>
+      </c>
+      <c r="E32" s="1">
+        <f>$C32*$D32</f>
+        <v>113.49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>599.99</v>
+      </c>
+      <c r="E33" s="1">
+        <f>$C33*$D33</f>
+        <v>599.99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>84.99</v>
+      </c>
+      <c r="E34" s="1">
+        <f>$C34*$D34</f>
+        <v>84.99</v>
+      </c>
+      <c r="F34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="E35" s="1">
+        <f>$C35*$D35</f>
+        <v>33.4</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="1">
+        <f>$C36*$D36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>300</v>
+      </c>
+      <c r="E37" s="1">
+        <f>$C37*$D37</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" ref="E38:E47" si="0">$C38*$D38</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E39" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E40" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="1">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E41" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="1">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E42" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="1">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="1">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E44" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="1">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E45" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E48" s="1">
+        <f>_xlfn.AGGREGATE(9, 6, Table2[Total cost - currency])</f>
+        <v>33739.58</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{9DFA26F6-F090-4332-9266-E96A40519D74}"/>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{9DFA26F6-F090-4332-9266-E96A40519D74}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{DCD041CF-8A07-4D61-A2A1-078E674413BC}"/>
+    <hyperlink ref="F22" r:id="rId3" xr:uid="{D5B24E80-61CA-4655-BEED-70F2382895EE}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{38DFA7B5-FE69-49F3-8B6E-D5DE781DF6C0}"/>
+    <hyperlink ref="F23" r:id="rId5" xr:uid="{0A0EDF12-011B-402D-B231-6DA6CEC28019}"/>
+    <hyperlink ref="F30" r:id="rId6" xr:uid="{1332BCF0-19F2-4C3B-A781-E5D84EE22087}"/>
+    <hyperlink ref="F35" r:id="rId7" xr:uid="{A6AACEA7-1B79-4AD5-BC27-AEA625BF7F70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
+  <tableParts count="1">
+    <tablePart r:id="rId10"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6BE5BA-68DD-47A7-A73B-56F3984E2AAB}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E2" s="1">
+        <f>$C2*$D2</f>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>84.42</v>
+      </c>
+      <c r="E3" s="1">
+        <f>$C3*$D3</f>
+        <v>84.42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>